--- a/FoundationsForAnalyticsWithPython/Week7_part2/xls/sales_2013.xlsx
+++ b/FoundationsForAnalyticsWithPython/Week7_part2/xls/sales_2013.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AINOCHI\Desktop\Project\HowToPython\Book\FoundationsForAnalyticsWithPython\ch03_Excel_file\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AINOCHI\Desktop\Project\HowToBigData\FoundationsForAnalyticsWithPython\Week7_part2\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14238EAF-9392-4A80-BA71-E7D06ECF12A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997D8CB-1113-4559-B230-13240E369967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="january_2013" sheetId="1" r:id="rId1"/>
@@ -495,12 +495,12 @@
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1234</v>
       </c>
@@ -534,7 +534,7 @@
         <v>41275</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>2345</v>
       </c>
@@ -551,7 +551,7 @@
         <v>41280</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>3456</v>
       </c>
@@ -568,7 +568,7 @@
         <v>41285</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4567</v>
       </c>
@@ -585,7 +585,7 @@
         <v>41292</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5678</v>
       </c>
@@ -602,7 +602,7 @@
         <v>41298</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>6789</v>
       </c>
@@ -633,12 +633,15 @@
       <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>9876</v>
       </c>
@@ -672,7 +675,7 @@
         <v>41307</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>8765</v>
       </c>
@@ -689,7 +692,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>7654</v>
       </c>
@@ -706,7 +709,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>6543</v>
       </c>
@@ -723,7 +726,7 @@
         <v>41322</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>5432</v>
       </c>
@@ -740,7 +743,7 @@
         <v>41326</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>4321</v>
       </c>
@@ -769,15 +772,15 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E7"/>
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>1234</v>
       </c>
@@ -808,10 +811,10 @@
         <v>1350</v>
       </c>
       <c r="E2" s="4">
-        <v>41275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>8765</v>
       </c>
@@ -825,10 +828,10 @@
         <v>1167</v>
       </c>
       <c r="E3" s="4">
-        <v>41280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2345</v>
       </c>
@@ -842,10 +845,10 @@
         <v>1789</v>
       </c>
       <c r="E4" s="4">
-        <v>41285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>6543</v>
       </c>
@@ -859,10 +862,10 @@
         <v>2042</v>
       </c>
       <c r="E5" s="4">
-        <v>41292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>3456</v>
       </c>
@@ -876,10 +879,10 @@
         <v>1511</v>
       </c>
       <c r="E6" s="4">
-        <v>41298</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>41357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>4321</v>
       </c>
@@ -893,7 +896,7 @@
         <v>2280</v>
       </c>
       <c r="E7" s="4">
-        <v>41305</v>
+        <v>41364</v>
       </c>
     </row>
   </sheetData>
